--- a/src/tabledesign/SPECTRUM.xlsx
+++ b/src/tabledesign/SPECTRUM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>NN</t>
   </si>
@@ -46,10 +46,6 @@
   </si>
   <si>
     <t>varchar(8)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">varchar(30) </t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -100,6 +96,18 @@
     <t>AC$MASS_SPECTROMETRY: ION_MODE .
 NEGATIVE may be -1 or -2 
 POSITIVE may be 1 or 2.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>type in JavaDB</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>tinyint(4)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -166,6 +174,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -237,7 +246,24 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -412,16 +438,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル3589" displayName="テーブル3589" ref="B4:H8" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="B4:H8"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="name of column" dataDxfId="6"/>
-    <tableColumn id="2" name="type in mysql" dataDxfId="5"/>
-    <tableColumn id="3" name="is null?" dataDxfId="4"/>
-    <tableColumn id="4" name="is key?" dataDxfId="3"/>
-    <tableColumn id="5" name="initial value" dataDxfId="2"/>
-    <tableColumn id="6" name="description" dataDxfId="1"/>
-    <tableColumn id="7" name="mapped from MassBank File" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル3589" displayName="テーブル3589" ref="B4:I8" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="B4:I8"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="name of column" dataDxfId="7"/>
+    <tableColumn id="2" name="type in mysql" dataDxfId="6"/>
+    <tableColumn id="8" name="type in JavaDB" dataDxfId="0"/>
+    <tableColumn id="3" name="is null?" dataDxfId="5"/>
+    <tableColumn id="4" name="is key?" dataDxfId="4"/>
+    <tableColumn id="5" name="initial value" dataDxfId="3"/>
+    <tableColumn id="6" name="description" dataDxfId="2"/>
+    <tableColumn id="7" name="mapped from MassBank File" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -714,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -725,51 +752,57 @@
     <col min="1" max="1" width="3" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="38.375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="10" style="1"/>
+    <col min="4" max="4" width="19.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="38.375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="10" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:8" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:9" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>18</v>
+      <c r="I4" s="9" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
@@ -777,66 +810,78 @@
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2">
         <v>0</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="2"/>
+      <c r="I5" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B6" s="2" t="s">
+    <row r="7" spans="1:9" ht="38.25" x14ac:dyDescent="0.15">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="10" t="s">
+      <c r="D8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="10" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="38.25" x14ac:dyDescent="0.15">
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="10" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
